--- a/GoogleDrive/Team Organisation/Timesheet after Audit 2.xlsx
+++ b/GoogleDrive/Team Organisation/Timesheet after Audit 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>This timesheet was created following feedback received during Audit 1 (This only includes individual work)</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>System Architecture</t>
+  </si>
+  <si>
+    <t>15/04/2018</t>
+  </si>
+  <si>
+    <t>GitHub / Communication</t>
+  </si>
+  <si>
+    <t>14/04/2018</t>
+  </si>
+  <si>
+    <t>Implementing New Part</t>
+  </si>
+  <si>
+    <t>Path Loss Algorithm Tuning</t>
   </si>
 </sst>
 </file>
@@ -183,6 +198,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -263,7 +281,7 @@
       </c>
       <c r="H5">
         <f>SUMIF(C:C,"JS",E:E)*24</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -305,7 +323,7 @@
       </c>
       <c r="H7">
         <f>SUMIF(C:C,"WR",E:E)*24</f>
-        <v>2.166666667</v>
+        <v>5.166666667</v>
       </c>
     </row>
     <row r="8">
@@ -441,22 +459,46 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="5"/>
@@ -561,10 +603,10 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37">
       <c r="B37" s="9"/>
@@ -6350,12 +6392,6 @@
       <c r="D1000" s="9"/>
       <c r="E1000" s="10"/>
     </row>
-    <row r="1001">
-      <c r="B1001" s="9"/>
-      <c r="C1001" s="9"/>
-      <c r="D1001" s="9"/>
-      <c r="E1001" s="10"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/GoogleDrive/Team Organisation/Timesheet after Audit 2.xlsx
+++ b/GoogleDrive/Team Organisation/Timesheet after Audit 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>This timesheet was created following feedback received during Audit 1 (This only includes individual work)</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Path Loss Algorithm Tuning</t>
+  </si>
+  <si>
+    <t>18/04/2018</t>
+  </si>
+  <si>
+    <t>Report Work - Risk Matrix</t>
+  </si>
+  <si>
+    <t>23/04/2018</t>
+  </si>
+  <si>
+    <t>Communications, GitHub</t>
   </si>
 </sst>
 </file>
@@ -323,7 +335,7 @@
       </c>
       <c r="H7">
         <f>SUMIF(C:C,"WR",E:E)*24</f>
-        <v>5.166666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -365,7 +377,7 @@
       </c>
       <c r="H9">
         <f>SUMIF(C:C,"AB",E:E)*24</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -501,16 +513,32 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.020833333333333332</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.034722222222222224</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="5"/>
